--- a/users/Bryan/linux k8s vim cheat sheet.xlsx
+++ b/users/Bryan/linux k8s vim cheat sheet.xlsx
@@ -1,45 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6695cb905652c064/Documents/BryanSmith-IT/homelab 2.0/Linux/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DE7E0A-4DB9-4BC8-A9EB-C3ED07D544D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="1" xr2:uid="{2DB74BA3-A41F-4C4E-900B-4AE195E201A7}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="181">
-  <si>
-    <t>rmdir foldername</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+  <si>
+    <t xml:space="preserve">rmdir foldername</t>
   </si>
   <si>
     <t>ctrl+shft+c</t>
@@ -57,64 +34,64 @@
     <t>!!</t>
   </si>
   <si>
-    <t>run last command</t>
-  </si>
-  <si>
-    <t>ctrl x e</t>
-  </si>
-  <si>
-    <t>command in a  file</t>
+    <t xml:space="preserve">run last command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctrl x e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">command in a  file</t>
   </si>
   <si>
     <t>LOGS</t>
   </si>
   <si>
-    <t>journalctl -f | grep -i 'auth'</t>
-  </si>
-  <si>
-    <t>follow journal (live view) for a keyword</t>
+    <t xml:space="preserve">journalctl -f | grep -i 'auth'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">follow journal (live view) for a keyword</t>
   </si>
   <si>
     <t>tail</t>
   </si>
   <si>
-    <t>end of log</t>
-  </si>
-  <si>
-    <t>tail -f</t>
-  </si>
-  <si>
-    <t>follow end of log</t>
-  </si>
-  <si>
-    <t>history | tail -n 10</t>
-  </si>
-  <si>
-    <t>last 10 commands</t>
+    <t xml:space="preserve">end of log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tail -f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">follow end of log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history | tail -n 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last 10 commands</t>
   </si>
   <si>
     <t>SERVICES</t>
   </si>
   <si>
-    <t>systemctl list-units --type=service --state=running</t>
-  </si>
-  <si>
-    <t>watch -n 1 "kubectl get pods"</t>
-  </si>
-  <si>
-    <t>k8s demo</t>
+    <t xml:space="preserve">systemctl list-units --type=service --state=running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watch -n 1 "kubectl get pods"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k8s demo</t>
   </si>
   <si>
     <t>ctrl+r</t>
   </si>
   <si>
-    <t>search through history</t>
-  </si>
-  <si>
-    <t>cd -</t>
-  </si>
-  <si>
-    <t>provious directory</t>
+    <t xml:space="preserve">search through history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provious directory</t>
   </si>
   <si>
     <t>DISK</t>
@@ -123,49 +100,49 @@
     <t>VIM</t>
   </si>
   <si>
-    <t>Insert mode:</t>
-  </si>
-  <si>
-    <t>gg - top of file</t>
-  </si>
-  <si>
-    <t>i       # Enter insert mode</t>
-  </si>
-  <si>
-    <t>G - bottom</t>
-  </si>
-  <si>
-    <t>Esc     # Exit insert mode</t>
-  </si>
-  <si>
-    <t>Yy - yank, or copy, the line</t>
-  </si>
-  <si>
-    <t>:wq     # Save and quit</t>
-  </si>
-  <si>
-    <t>P - paste the line</t>
-  </si>
-  <si>
-    <t>:q!     # Quit without saving</t>
-  </si>
-  <si>
-    <t>/ - search</t>
-  </si>
-  <si>
-    <t>dd      # Delete current lin</t>
-  </si>
-  <si>
-    <t>N - repeat the search</t>
-  </si>
-  <si>
-    <t>u - undo</t>
-  </si>
-  <si>
-    <t>? - backwards search</t>
-  </si>
-  <si>
-    <t>Then, N to repeat</t>
+    <t xml:space="preserve">Insert mode:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gg - top of file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i       # Enter insert mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G - bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esc     # Exit insert mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yy - yank, or copy, the line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:wq     # Save and quit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P - paste the line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:q!     # Quit without saving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ - search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd      # Delete current lin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N - repeat the search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u - undo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? - backwards search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then, N to repeat</t>
   </si>
   <si>
     <t>%s/test/frontend/g</t>
@@ -183,10 +160,10 @@
     <t>dG</t>
   </si>
   <si>
-    <t>delete from that line down</t>
-  </si>
-  <si>
-    <t>shift V
+    <t xml:space="preserve">delete from that line down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift V
 d</t>
   </si>
   <si>
@@ -194,16 +171,16 @@
 </t>
   </si>
   <si>
-    <t>chmod +x script-name.sh</t>
-  </si>
-  <si>
-    <t>make a bash script executable</t>
+    <t xml:space="preserve">chmod +x script-name.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make a bash script executable</t>
   </si>
   <si>
     <t>:%s/old/new/g</t>
   </si>
   <si>
-    <t>find and replace</t>
+    <t xml:space="preserve">find and replace</t>
   </si>
   <si>
     <t>C</t>
@@ -212,67 +189,66 @@
     <t>Meaning</t>
   </si>
   <si>
-    <t>ggVG
+    <t xml:space="preserve">ggVG
 y</t>
   </si>
   <si>
-    <t>select all, copy</t>
+    <t xml:space="preserve">select all, copy</t>
   </si>
   <si>
     <t>:</t>
   </si>
   <si>
-    <t>Enters command mode</t>
+    <t xml:space="preserve">Enters command mode</t>
   </si>
   <si>
     <t>zR</t>
   </si>
   <si>
-    <t>open all folds</t>
+    <t xml:space="preserve">open all folds</t>
   </si>
   <si>
     <t>%</t>
   </si>
   <si>
-    <t>Applies to the entire file</t>
+    <t xml:space="preserve">Applies to the entire file</t>
   </si>
   <si>
     <t>s</t>
   </si>
   <si>
-    <t>Substitute command</t>
+    <t xml:space="preserve">Substitute command</t>
   </si>
   <si>
     <t>/old/</t>
   </si>
   <si>
-    <t>The text you want to find</t>
+    <t xml:space="preserve">The text you want to find</t>
   </si>
   <si>
     <t>/new/</t>
   </si>
   <si>
-    <t>The text to replace it with</t>
+    <t xml:space="preserve">The text to replace it with</t>
   </si>
   <si>
     <t>g</t>
   </si>
   <si>
-    <t>(Global) Replace all occurrences on each line</t>
+    <t xml:space="preserve">(Global) Replace all occurrences on each line</t>
   </si>
   <si>
     <t>GIT</t>
   </si>
   <si>
     <r>
-      <t>git add .</t>
+      <t xml:space="preserve">git add .</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> ← </t>
@@ -283,22 +259,20 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Tell Git which changes to track</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>git commit -m "Message"</t>
+      <t xml:space="preserve">Tell Git which changes to track</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git commit -m "Message"</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> ← </t>
@@ -309,22 +283,20 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Lock in those changes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>git push</t>
+      <t xml:space="preserve">Lock in those changes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git push</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> ← </t>
@@ -335,60 +307,59 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Send to remote repo</t>
+      <t xml:space="preserve">Send to remote repo</t>
     </r>
   </si>
   <si>
     <t>kubernetes</t>
   </si>
   <si>
-    <t>k config set-context --current --namespace=default</t>
-  </si>
-  <si>
-    <t>change default namespace or cluster</t>
-  </si>
-  <si>
-    <t>k get service -o wide</t>
-  </si>
-  <si>
-    <t>cluster IP will show how to connect to a service</t>
-  </si>
-  <si>
-    <t>k describe</t>
-  </si>
-  <si>
-    <t>k explain</t>
-  </si>
-  <si>
-    <t>k exec -it nginx-storage -c busybox -- sh</t>
-  </si>
-  <si>
-    <t>go into a specific container (in a pod with multiple containers) and use the terminal</t>
+    <t xml:space="preserve">k config set-context --current --namespace=default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change default namespace or cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k get service -o wide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cluster IP will show how to connect to a service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k describe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k explain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k exec -it nginx-storage -c busybox -- sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go into a specific container (in a pod with multiple containers) and use the terminal</t>
   </si>
   <si>
     <t>k9s</t>
   </si>
   <si>
-    <t>shift+a:  sort by age
+    <t xml:space="preserve">shift+a:  sort by age
 :  - can then use more kubectl commands like "deployment" to view deployments (": POD" to go back)
 has vim shortcuts like / for search (logs, search pods)
 ctrl+s:  shell (ctrl+d to exit)
 shift+s:  sort by status</t>
   </si>
   <si>
-    <t>k get all -n homarr</t>
-  </si>
-  <si>
-    <t>get all things created from helm created homarr</t>
-  </si>
-  <si>
-    <t>yaml files</t>
-  </si>
-  <si>
-    <t>in values.yaml (and other YAML)
+    <t xml:space="preserve">k get all -n homarr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get all things created from helm created homarr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yaml files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in values.yaml (and other YAML)
 {} = empty object.  Expecting object.  So: hello: world
 [] = list
   -  hello
@@ -399,21 +370,20 @@
     <t>helm</t>
   </si>
   <si>
-    <t>🆕 Modern Equivalent</t>
-  </si>
-  <si>
-    <t>helm upgrade -n homarr homarr homarr-labs/homarr --values=values.yaml</t>
-  </si>
-  <si>
-    <r>
-      <t>ip addr</t>
+    <t xml:space="preserve">🆕 Modern Equivalent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helm upgrade -n homarr homarr homarr-labs/homarr --values=values.yaml</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ip addr</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> or </t>
@@ -424,56 +394,56 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>ip a</t>
-    </r>
-  </si>
-  <si>
-    <t>helm install homarr homarr-labs/homarr -f values.yaml -n homarr</t>
-  </si>
-  <si>
-    <t>ip link show</t>
-  </si>
-  <si>
-    <t>helm ls -A</t>
-  </si>
-  <si>
-    <t>ip link set eth0 up/down</t>
-  </si>
-  <si>
-    <t>helm repo list</t>
-  </si>
-  <si>
-    <t>ip route</t>
-  </si>
-  <si>
-    <t>helm show values homarr-labs/homarr | vim -</t>
-  </si>
-  <si>
-    <t>ip route add 192.168.1.0/24 via 192.168.1.1</t>
+      <t xml:space="preserve">ip a</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">helm install homarr homarr-labs/homarr -f values.yaml -n homarr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip link show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helm ls -A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip link set eth0 up/down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helm repo list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helm show values homarr-labs/homarr | vim -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip route add 192.168.1.0/24 via 192.168.1.1</t>
   </si>
   <si>
     <t xml:space="preserve">helm uninstall -n homarr homarr </t>
   </si>
   <si>
-    <t>ip route del ...</t>
-  </si>
-  <si>
-    <t>ip neigh</t>
+    <t xml:space="preserve">ip route del ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip neigh</t>
   </si>
   <si>
     <t>docker</t>
   </si>
   <si>
-    <t>ip neigh add 192.168.1.10 lladdr MAC dev eth0</t>
-  </si>
-  <si>
-    <t>docker ps</t>
-  </si>
-  <si>
-    <t>list containers, ports exposed</t>
-  </si>
-  <si>
-    <t>ss -tulnp</t>
+    <t xml:space="preserve">ip neigh add 192.168.1.10 lladdr MAC dev eth0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list containers, ports exposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ss -tulnp</t>
   </si>
   <si>
     <r>
@@ -485,45 +455,44 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>containername</t>
     </r>
   </si>
   <si>
-    <t>ss -l</t>
-  </si>
-  <si>
-    <t>docker start</t>
-  </si>
-  <si>
-    <t>ip -s link</t>
-  </si>
-  <si>
-    <t>docker stats</t>
-  </si>
-  <si>
-    <t>docker exec -it thor sh</t>
-  </si>
-  <si>
-    <t>go into shell of container thor</t>
-  </si>
-  <si>
-    <t>Docker networks</t>
-  </si>
-  <si>
-    <t>docker network ls</t>
-  </si>
-  <si>
-    <t>all docker networks</t>
-  </si>
-  <si>
-    <t>🛠️ Task</t>
-  </si>
-  <si>
-    <r>
-      <t>🧓 Old Command (</t>
+    <t xml:space="preserve">ss -l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip -s link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker exec -it thor sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go into shell of container thor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker network ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all docker networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🛠️ Task</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🧓 Old Command (</t>
     </r>
     <r>
       <rPr>
@@ -540,77 +509,76 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Show IP addresses</t>
+    <t xml:space="preserve">Show IP addresses</t>
   </si>
   <si>
     <t>ifconfig</t>
   </si>
   <si>
-    <t>Show network interfaces</t>
-  </si>
-  <si>
-    <t>ifconfig -a</t>
-  </si>
-  <si>
-    <t>Bring interface up/down</t>
-  </si>
-  <si>
-    <t>ifconfig eth0 up/down</t>
-  </si>
-  <si>
-    <t>Show routing table</t>
-  </si>
-  <si>
-    <t>route -n</t>
-  </si>
-  <si>
-    <t>Add static route</t>
-  </si>
-  <si>
-    <t>route add -net 192.168.1.0 netmask 255.255.255.0 gw 192.168.1.1</t>
-  </si>
-  <si>
-    <t>Delete route</t>
-  </si>
-  <si>
-    <t>route del -net ...</t>
-  </si>
-  <si>
-    <t>Show ARP table</t>
-  </si>
-  <si>
-    <t>arp -a</t>
-  </si>
-  <si>
-    <t>Add ARP entry</t>
-  </si>
-  <si>
-    <t>arp -s 192.168.1.10 MAC</t>
-  </si>
-  <si>
-    <t>Show active connections</t>
-  </si>
-  <si>
-    <t>netstat -tulnp</t>
-  </si>
-  <si>
-    <t>Show all listening ports</t>
-  </si>
-  <si>
-    <t>netstat -l</t>
-  </si>
-  <si>
-    <t>Show interface statistics</t>
-  </si>
-  <si>
-    <t>netstat -i</t>
+    <t xml:space="preserve">Show network interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifconfig -a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bring interface up/down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifconfig eth0 up/down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show routing table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route -n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add static route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route add -net 192.168.1.0 netmask 255.255.255.0 gw 192.168.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route del -net ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show ARP table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arp -a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add ARP entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arp -s 192.168.1.10 MAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show active connections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netstat -tulnp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show all listening ports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netstat -l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show interface statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netstat -i</t>
   </si>
   <si>
     <t>Traceroute</t>
@@ -624,47 +592,46 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (separate packag</t>
     </r>
   </si>
   <si>
-    <t>kubectl get all -n &lt;namespace&gt;</t>
-  </si>
-  <si>
-    <t>kubectl exec -it &lt;po[dname&gt; -n &lt;namespace&gt; -- /bin/sh</t>
-  </si>
-  <si>
-    <t>port ranges</t>
+    <t xml:space="preserve">kubectl get all -n &lt;namespace&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl exec -it &lt;po[dname&gt; -n &lt;namespace&gt; -- /bin/sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">port ranges</t>
   </si>
   <si>
     <t>troubleshooting:</t>
   </si>
   <si>
-    <t>Container Port (containerPort / targetPort)</t>
+    <t xml:space="preserve">Container Port (containerPort / targetPort)</t>
   </si>
   <si>
     <t>1–65535</t>
   </si>
   <si>
-    <t>Port inside the Pod (e.g., your app listens on this).</t>
-  </si>
-  <si>
-    <t>Any valid TCP/UDP port; just make sure your container is actually listening on it.</t>
-  </si>
-  <si>
-    <t>kubectl describe pod -n mealie &lt;pod-name&gt;</t>
-  </si>
-  <si>
-    <t>look for events at bottom</t>
-  </si>
-  <si>
-    <t>ClusterIP / Service Port (port</t>
-  </si>
-  <si>
-    <t>Internal service-facing port for cluster communication.</t>
+    <t xml:space="preserve">Port inside the Pod (e.g., your app listens on this).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any valid TCP/UDP port; just make sure your container is actually listening on it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl describe pod -n mealie &lt;pod-name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look for events at bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClusterIP / Service Port (port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal service-facing port for cluster communication.</t>
   </si>
   <si>
     <t>NodePort</t>
@@ -673,21 +640,21 @@
     <t>30000–32767</t>
   </si>
   <si>
-    <t>Exposes service on all node IPs at this port.</t>
+    <t xml:space="preserve">Exposes service on all node IPs at this port.</t>
   </si>
   <si>
     <t>comments</t>
   </si>
   <si>
-    <t>kubectl get pod &lt;pod-name&gt; -n &lt;namespace&gt; -o yaml</t>
+    <t xml:space="preserve">kubectl get pod &lt;pod-name&gt; -n &lt;namespace&gt; -o yaml</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <u/>
+        <u val="single"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Search And Replace
@@ -696,7 +663,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">
@@ -715,9 +682,9 @@
     <r>
       <rPr>
         <b/>
-        <u/>
+        <u val="single"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
@@ -726,9 +693,9 @@
     </r>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
@@ -738,39 +705,40 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>kubectl -n "$NS" rollout restart deploy --all
+      <t xml:space="preserve">kubectl -n "$NS" rollout restart deploy --all
 kubectl -n "$NS" rollout restart sts --all
 kubectl -n "$NS" rollout restart ds  --all</t>
     </r>
   </si>
   <si>
-    <t>shift V
+    <t xml:space="preserve">shift V
 "+y
 d</t>
   </si>
   <si>
-    <t>select lines 
+    <t xml:space="preserve">select lines 
 yank to clipboard
 delete</t>
   </si>
   <si>
-    <t>ssss</t>
-  </si>
-  <si>
-    <t>One LIners:</t>
-  </si>
-  <si>
-    <t>kubectl get pods -A -o custom-columns='NAMESPACE:.metadata.namespace,NAME:.metadata.name,CONTROLLER_KIND:.metadata.ownerReferences[0].kind,CONTROLLER_NAME:.metadata.ownerReferences[0].name' --sort-by=.metadata.namespace</t>
+    <t xml:space="preserve"># Test DNS resolution from within the ArgoCD namespace
+kubectl -n argocd run test-dns --image=busybox --rm -it --restart=Never -- nslookup BSUS103KM01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One LIners:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl get pods -A -o custom-columns='NAMESPACE:.metadata.namespace,NAME:.metadata.name,CONTROLLER_KIND:.metadata.ownerReferences[0].kind,CONTROLLER_NAME:.metadata.ownerReferences[0].name' --sort-by=.metadata.namespace</t>
   </si>
   <si>
     <t>logs</t>
   </si>
   <si>
-    <t>tail -n 50 /var/log/xensource.log</t>
+    <t xml:space="preserve">tail -n 50 /var/log/xensource.log</t>
   </si>
   <si>
     <t>Linux</t>
@@ -779,127 +747,129 @@
     <t>comment</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Asana"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sudo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Asana"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mkdir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Asana"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -p /srv/secrets/{ssh-keys,clusters}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo chgrp -R gitadmins /path/to/dir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changes grp ownership recrsively</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo chmod -R g+rwX /path/to/dir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gives group r/w/exec access</t>
+  </si>
+  <si>
     <t>ssh-copy-id</t>
   </si>
   <si>
-    <t>systemctl status delayed-shutdown.service</t>
-  </si>
-  <si>
-    <t>check status of a service</t>
+    <t xml:space="preserve">systemctl status delayed-shutdown.service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check status of a service</t>
   </si>
   <si>
     <t>Services</t>
   </si>
   <si>
-    <t>sudo systemctl restart k3s</t>
-  </si>
-  <si>
-    <t>restart k3s master</t>
+    <t xml:space="preserve">sudo systemctl restart k3s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restart k3s master</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="14.000000"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14"/>
+      <sz val="14.000000"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <sz val="11.000000"/>
+      <name val="Asana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -912,67 +882,72 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="23">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,19 +958,14 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="11.000000"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="3" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="3" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1003,59 +973,339 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{350EA042-1500-46A8-88A3-12DC16BD34EF}" name="Table5" displayName="Table5" ref="A1:B15" totalsRowShown="0">
-  <autoFilter ref="A1:B15" xr:uid="{350EA042-1500-46A8-88A3-12DC16BD34EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table5" ref="A1:B15">
+  <autoFilter ref="A1:B15"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{21335D70-5C25-4391-A777-FFB97A1651EE}" name="VIM"/>
-    <tableColumn id="2" xr3:uid="{B0642E5D-A086-4467-A784-BFF357EE2FCF}" name="comments" dataDxfId="0"/>
+    <tableColumn id="1" name="VIM"/>
+    <tableColumn id="2" name="comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EB6763B6-4CCE-46C6-B162-1FF1B797D646}" name="Table6" displayName="Table6" ref="A17:B21" totalsRowShown="0">
-  <autoFilter ref="A17:B21" xr:uid="{EB6763B6-4CCE-46C6-B162-1FF1B797D646}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" displayName="Table6" ref="A17:B21">
+  <autoFilter ref="A17:B21"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2C1D2BA1-81CE-4A70-8AFE-F397F38BB629}" name="logs"/>
-    <tableColumn id="2" xr3:uid="{936ABEF1-76C3-43F2-8555-86530444EFB0}" name="comments"/>
+    <tableColumn id="1" name="logs"/>
+    <tableColumn id="2" name="comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F06F8358-A5AE-423D-A48E-EBA8088B0965}" name="Table7" displayName="Table7" ref="D1:E12" totalsRowShown="0">
-  <autoFilter ref="D1:E12" xr:uid="{F06F8358-A5AE-423D-A48E-EBA8088B0965}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" displayName="Table7" ref="D1:E12">
+  <autoFilter ref="D1:E12"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D53D9772-F8CD-4088-88E5-A63C3F1D229D}" name="kubernetes"/>
-    <tableColumn id="2" xr3:uid="{A326C103-F4B6-4FC1-9668-6F2B555EBD39}" name="comments"/>
+    <tableColumn id="1" name="kubernetes"/>
+    <tableColumn id="2" name="comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BD86AF8-0A96-491A-B377-45AF11F60AA0}" name="Table1" displayName="Table1" ref="A24:B26" totalsRowShown="0">
-  <autoFilter ref="A24:B26" xr:uid="{3BD86AF8-0A96-491A-B377-45AF11F60AA0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" displayName="Table1" ref="A24:B29">
+  <autoFilter ref="A24:B29"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00875E32-9D9C-4A3B-8347-4CA7007304BC}" name="Linux"/>
-    <tableColumn id="2" xr3:uid="{28F5727B-CEE4-4418-9939-F05ABE341BAD}" name="comment"/>
+    <tableColumn id="1" name="Linux"/>
+    <tableColumn id="2" name="comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1097,108 +1347,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Display"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Narrow"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1206,7 +1362,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1232,7 +1388,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1284,16 +1440,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1309,7 +1477,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1341,7 +1509,7 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:lnDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -1360,38 +1528,31 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2B88DE-BDEE-4712-934F-FB394FE8B329}">
-  <dimension ref="A1:F108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:B107"/>
+    <sheetView topLeftCell="A57" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A100" activeCellId="0" sqref="A100:B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="28.5703125"/>
+    <col customWidth="1" min="2" max="2" width="36.28515625"/>
+    <col customWidth="1" min="3" max="3" width="32.42578125"/>
+    <col customWidth="1" min="4" max="4" width="15"/>
+    <col bestFit="1" customWidth="1" min="5" max="6" width="36.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1399,7 +1560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1407,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1415,7 +1576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1423,12 +1584,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1436,7 +1597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1444,7 +1605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1452,7 +1613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1460,17 +1621,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1478,7 +1639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1486,7 +1647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1494,212 +1655,212 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17">
       <c r="A17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
+    <row r="21">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
+    <row r="22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
+    <row r="23">
+      <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
+    <row r="24">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
+    <row r="25">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
+    <row r="26">
+      <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
+    <row r="27">
+      <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
+    <row r="28">
+      <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9" t="s">
+    <row r="29">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="106.5">
-      <c r="A30" s="6" t="s">
+    <row r="30" ht="99.75">
+      <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
+    <row r="31">
+      <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30.75">
-      <c r="A32" s="13" t="s">
+    <row r="32" ht="28.5">
+      <c r="A32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="13" t="s">
+    <row r="33">
+      <c r="A33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="13" t="s">
+    <row r="34">
+      <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30.75">
-      <c r="A35" s="13" t="s">
+    <row r="35" ht="28.5">
+      <c r="A35" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C35" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="29.25">
-      <c r="A36" s="6" t="s">
+    <row r="36" ht="28.5">
+      <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="29.25">
+    <row r="37" ht="28.5">
       <c r="C37" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="29.25">
+    <row r="38" ht="28.5">
       <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="29.25">
+    <row r="39" ht="28.5">
       <c r="C39" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="57.75">
+    <row r="40" ht="42.75">
       <c r="C40" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="6" t="s">
+    <row r="46">
+      <c r="A46" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="8"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47">
       <c r="A47" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49">
       <c r="A49" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51">
       <c r="A51" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53">
       <c r="A53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -1707,7 +1868,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -1715,17 +1876,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56">
       <c r="A56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57">
       <c r="A57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -1733,136 +1894,136 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="115.5">
+    <row r="59" ht="114">
       <c r="A59" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="29.25">
+    <row r="60" ht="28.5">
       <c r="A60" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="101.25">
+    <row r="61" ht="99.75">
       <c r="A61" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="B62" s="12"/>
-    </row>
-    <row r="63" spans="1:3" ht="15.75">
+    <row r="62">
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" ht="15.75">
       <c r="A63" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64">
       <c r="A64" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65">
       <c r="A65" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66">
       <c r="A66" t="s">
         <v>96</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67">
       <c r="A67" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="29.25">
+    <row r="68" ht="29.25">
       <c r="A68" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69">
       <c r="A69" t="s">
         <v>102</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="C70" s="5" t="s">
+    <row r="70">
+      <c r="C70" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="29.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" ht="29.25">
+      <c r="A71" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72">
       <c r="A72" t="s">
         <v>107</v>
       </c>
       <c r="B72" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73">
       <c r="A73" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74">
       <c r="A74" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75">
       <c r="A75" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -1870,12 +2031,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77">
       <c r="A77" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78">
       <c r="A78" t="s">
         <v>118</v>
       </c>
@@ -1883,149 +2044,149 @@
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75">
-      <c r="A85" s="3" t="s">
+    <row r="85" ht="15.75">
+      <c r="A85" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="4" t="s">
+    <row r="86">
+      <c r="A86" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="4" t="s">
+    <row r="87">
+      <c r="A87" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="4" t="s">
+    <row r="88">
+      <c r="A88" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="4" t="s">
+    <row r="89">
+      <c r="A89" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="29.25">
-      <c r="A90" s="4" t="s">
+    <row r="90" ht="29.25">
+      <c r="A90" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="4" t="s">
+    <row r="91">
+      <c r="A91" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="4" t="s">
+    <row r="92">
+      <c r="A92" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="4" t="s">
+    <row r="93">
+      <c r="A93" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="4" t="s">
+    <row r="94">
+      <c r="A94" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="4" t="s">
+    <row r="95">
+      <c r="A95" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="4" t="s">
+    <row r="96">
+      <c r="A96" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="4" t="s">
+    <row r="97">
+      <c r="A97" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100">
       <c r="A100" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101">
       <c r="A101" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="29.25">
-      <c r="A102" s="12" t="s">
+    <row r="102" ht="29.25">
+      <c r="A102" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="C105" s="12" t="s">
+    <row r="105">
+      <c r="C105" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="29.25">
+    <row r="106" ht="29.25">
       <c r="A106" t="s">
         <v>149</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D106" t="s">
         <v>151</v>
       </c>
-      <c r="E106" s="12" t="s">
+      <c r="E106" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F106" s="12" t="s">
+      <c r="F106" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="29.25">
-      <c r="A107" s="12" t="s">
+    <row r="107" ht="29.25">
+      <c r="A107" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B107" t="s">
@@ -2037,224 +2198,226 @@
       <c r="D107" t="s">
         <v>151</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="29.25">
+    <row r="108" ht="29.25">
       <c r="C108" t="s">
         <v>158</v>
       </c>
       <c r="D108" t="s">
         <v>159</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="9" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9E5E12-6251-463B-9D1F-254271A23D8B}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="42.625"/>
+    <col customWidth="1" min="2" max="2" width="33"/>
+    <col customWidth="1" min="3" max="3" width="5.28515625"/>
+    <col customWidth="1" min="4" max="4" width="41.85546875"/>
+    <col customWidth="1" min="5" max="5" width="45.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="17" t="s">
+    <row r="1" ht="18.75">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>75</v>
       </c>
       <c r="E1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5">
-      <c r="A3" s="7" t="s">
+    <row r="3" ht="28.5">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" ht="28.5">
+      <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="16.5">
+      <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9" t="s">
+    <row r="8" ht="29.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>154</v>
       </c>
       <c r="E8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="106.5">
-      <c r="A9" s="16" t="s">
+    <row r="9" ht="99.75">
+      <c r="A9" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>164</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="57.75" customHeight="1">
-      <c r="A10" s="13" t="s">
+    <row r="10" ht="57.75" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30.75">
-      <c r="A11" s="13" t="s">
+    <row r="11" ht="28.5">
+      <c r="A11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="87">
-      <c r="A12" s="6" t="s">
+    <row r="12" ht="85.5">
+      <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
+    <row r="14">
+      <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75">
-      <c r="A17" s="18" t="s">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" ht="16.5">
+      <c r="A17" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B17" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24">
       <c r="A24" t="s">
         <v>173</v>
       </c>
@@ -2262,34 +2425,61 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+    <row r="25" ht="16.5">
+      <c r="A25" s="20" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
         <v>176</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="27">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33" ht="14.25">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/users/Bryan/linux k8s vim cheat sheet.xlsx
+++ b/users/Bryan/linux k8s vim cheat sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t xml:space="preserve">rmdir foldername</t>
   </si>
@@ -649,12 +649,15 @@
     <t xml:space="preserve">kubectl get pod &lt;pod-name&gt; -n &lt;namespace&gt; -o yaml</t>
   </si>
   <si>
+    <t xml:space="preserve">kubectl delete -n argocd -f https://raw.githubusercontent.com/argoproj/argo-cd/stable/manifests/install.yaml
+kubectl delete namespace argocd</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Search And Replace
@@ -663,7 +666,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">
@@ -679,12 +681,27 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">kubectl logs -n monitoring deployment/monitoring-grafana | grep -i dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift V
+"+y
+d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select lines 
+yank to clipboard
+delete</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
@@ -695,7 +712,6 @@
       <rPr>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
@@ -705,7 +721,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="64"/>
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
@@ -715,16 +730,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">shift V
-"+y
-d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select lines 
-yank to clipboard
-delete</t>
-  </si>
-  <si>
     <t xml:space="preserve"># Test DNS resolution from within the ArgoCD namespace
 kubectl -n argocd run test-dns --image=busybox --rm -it --restart=Never -- nslookup BSUS103KM01</t>
   </si>
@@ -735,6 +740,15 @@
     <t xml:space="preserve">kubectl get pods -A -o custom-columns='NAMESPACE:.metadata.namespace,NAME:.metadata.name,CONTROLLER_KIND:.metadata.ownerReferences[0].kind,CONTROLLER_NAME:.metadata.ownerReferences[0].name' --sort-by=.metadata.namespace</t>
   </si>
   <si>
+    <t xml:space="preserve">Kubernetes apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helm show values prometheus-community/kube-prometheus-stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show what is configurable in a helm chart</t>
+  </si>
+  <si>
     <t>logs</t>
   </si>
   <si>
@@ -747,30 +761,19 @@
     <t>comment</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Asana"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sudo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Asana"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mkdir</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Asana"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -p /srv/secrets/{ssh-keys,clusters}</t>
-    </r>
+    <t xml:space="preserve">mv /path/to/source/* /path/to/destination/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mv file1.txt file2.txt /path/to/destination/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move some things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkdir -p /srv/secrets/{ssh-keys,clusters}</t>
   </si>
   <si>
     <t xml:space="preserve">sudo chgrp -R gitadmins /path/to/dir</t>
@@ -807,7 +810,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -856,20 +859,24 @@
     </font>
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
-      <name val="Asana"/>
+      <sz val="12.000000"/>
+      <color indexed="64"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12.000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -892,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -940,14 +947,20 @@
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,8 +1013,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" displayName="Table7" ref="D1:E12">
-  <autoFilter ref="D1:E12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" displayName="Table7" ref="D1:E13">
+  <autoFilter ref="D1:E13"/>
   <tableColumns count="2">
     <tableColumn id="1" name="kubernetes"/>
     <tableColumn id="2" name="comments"/>
@@ -1011,8 +1024,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" displayName="Table1" ref="A24:B29">
-  <autoFilter ref="A24:B29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" displayName="Table1" ref="A24:B31">
+  <autoFilter ref="A24:B31"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Linux"/>
     <tableColumn id="2" name="comment"/>
@@ -2224,7 +2237,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
       <selection activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2233,8 +2246,7 @@
     <col customWidth="1" min="1" max="1" width="42.625"/>
     <col customWidth="1" min="2" max="2" width="33"/>
     <col customWidth="1" min="3" max="3" width="5.28515625"/>
-    <col customWidth="1" min="4" max="4" width="41.85546875"/>
-    <col customWidth="1" min="5" max="5" width="45.5703125"/>
+    <col customWidth="1" min="4" max="5" width="72.75390625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75">
@@ -2275,12 +2287,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="42.75">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6">
@@ -2313,35 +2328,38 @@
     </row>
     <row r="9" ht="99.75">
       <c r="A9" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" ht="57.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5">
+        <v>169</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" ht="42.75">
       <c r="A11" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D11" t="s">
-        <v>169</v>
+      <c r="D11" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="12" ht="85.5">
@@ -2351,16 +2369,19 @@
       <c r="B12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" ht="57">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>46</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -2368,17 +2389,23 @@
         <v>31</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="8"/>
     </row>
     <row r="15">
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="9"/>
+      <c r="D15" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" ht="15">
+      <c r="D16" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="17" ht="16.5">
       <c r="A17" s="16" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
         <v>161</v>
@@ -2414,65 +2441,82 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D21" s="9"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5">
-      <c r="A25" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25" s="21"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>179</v>
-      </c>
+      <c r="A26" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" ht="15">
+      <c r="A27" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33" ht="14.25">
-      <c r="A33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35" ht="14.25">
+      <c r="A35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/users/Bryan/linux k8s vim cheat sheet.xlsx
+++ b/users/Bryan/linux k8s vim cheat sheet.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="linux k8s" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="claudeCode" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t xml:space="preserve">rmdir foldername</t>
   </si>
@@ -653,6 +654,9 @@
 kubectl delete namespace argocd</t>
   </si>
   <si>
+    <t xml:space="preserve">dd      # cut or Delete current lin</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -697,120 +701,233 @@
 delete</t>
   </si>
   <si>
+    <t xml:space="preserve">redeploy all pods in a  namespace:
+Clean:
+kubectl -n "$NS" rollout restart deploy --all
+kubectl -n "$NS" rollout restart sts --all
+kubectl -n "$NS" rollout restart ds  --all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restart pods</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Test DNS resolution from within the ArgoCD namespace
+kubectl -n argocd run test-dns --image=busybox --rm -it --restart=Never -- nslookup BSUS103KM01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One LIners:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl get pods -A -o custom-columns='NAMESPACE:.metadata.namespace,NAME:.metadata.name,CONTROLLER_KIND:.metadata.ownerReferences[0].kind,CONTROLLER_NAME:.metadata.ownerReferences[0].name' --sort-by=.metadata.namespace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kubernetes apps (helm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helm show values prometheus-community/kube-prometheus-stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show what is configurable in a helm chart</t>
+  </si>
+  <si>
+    <t>logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helm search repo &lt;chart-name&gt; --versions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search versions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl api-resources | grep metallb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check which api version of something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helm show values netbox-community/netbox | less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show what chart expects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tail -n 50 /var/log/xensource.log</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mv /path/to/source/* /path/to/destination/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mv file1.txt file2.txt /path/to/destination/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move some things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkdir -p /srv/secrets/{ssh-keys,clusters}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo chgrp -R gitadmins /path/to/dir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changes grp ownership recrsively</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo chmod -R g+rwX /path/to/dir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gives group r/w/exec access</t>
+  </si>
+  <si>
+    <t>ssh-copy-id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemctl status delayed-shutdown.service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check status of a service</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo systemctl restart k3s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restart k3s master</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What it does</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>claude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start interactive mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claude "task"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run a one-time task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claude "fix the build error"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claude -p "query"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run one-off query, then exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claude -p "explain this function"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claude -c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue most recent conversation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claude -r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resume a previous conversation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claude commit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Git commit</t>
+  </si>
+  <si>
+    <t>/clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear conversation history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; /clear</t>
+  </si>
+  <si>
+    <t>/help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show available commands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; /help</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <u val="single"/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
+        <sz val="9"/>
+        <color rgb="FF111827"/>
+        <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">redeploy all pods in a  namespace:
-</t>
+      <t>exit</t>
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
+        <sz val="10.5"/>
+        <color rgb="FF3E3E3E"/>
+        <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Clean:
-</t>
+      <t xml:space="preserve"> or Ctrl+C</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">kubectl -n "$NS" rollout restart deploy --all
-kubectl -n "$NS" rollout restart sts --all
-kubectl -n "$NS" rollout restart ds  --all</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"># Test DNS resolution from within the ArgoCD namespace
-kubectl -n argocd run test-dns --image=busybox --rm -it --restart=Never -- nslookup BSUS103KM01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One LIners:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kubectl get pods -A -o custom-columns='NAMESPACE:.metadata.namespace,NAME:.metadata.name,CONTROLLER_KIND:.metadata.ownerReferences[0].kind,CONTROLLER_NAME:.metadata.ownerReferences[0].name' --sort-by=.metadata.namespace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kubernetes apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">helm show values prometheus-community/kube-prometheus-stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show what is configurable in a helm chart</t>
-  </si>
-  <si>
-    <t>logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tail -n 50 /var/log/xensource.log</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv /path/to/source/* /path/to/destination/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move everything</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv file1.txt file2.txt /path/to/destination/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move some things</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mkdir -p /srv/secrets/{ssh-keys,clusters}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sudo chgrp -R gitadmins /path/to/dir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">changes grp ownership recrsively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sudo chmod -R g+rwX /path/to/dir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gives group r/w/exec access</t>
-  </si>
-  <si>
-    <t>ssh-copy-id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">systemctl status delayed-shutdown.service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check status of a service</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sudo systemctl restart k3s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restart k3s master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exit Claude Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; exit</t>
+  </si>
+  <si>
+    <t>https://docs.claude.com/en/docs/claude-code/cli-reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Script a session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">script -a ~/session.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run script, append log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps aux | grep script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">script -f ~/session.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">force write instantly, no buffer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -870,13 +987,40 @@
     </font>
     <font>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="12.000000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.500000"/>
+      <color theme="0" tint="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.000000"/>
+      <color rgb="FF111827"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.500000"/>
+      <color rgb="FF3E3E3E"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -899,7 +1043,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -947,9 +1091,6 @@
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -957,10 +1098,22 @@
     <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,6 +1184,18 @@
     <tableColumn id="2" name="comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" displayName="Table2" ref="$A$1:$C$10">
+  <autoFilter ref="$A$1:$C$10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Command"/>
+    <tableColumn id="2" name="What it does"/>
+    <tableColumn id="3" name="Example"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2237,7 +2402,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="100" workbookViewId="0">
       <selection activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2300,7 +2465,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" ht="16.5">
@@ -2328,27 +2493,30 @@
     </row>
     <row r="9" ht="99.75">
       <c r="A9" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="9" t="s">
         <v>167</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="10" ht="57.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="21" t="s">
         <v>170</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="11" ht="42.75">
@@ -2359,7 +2527,7 @@
         <v>56</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" ht="85.5">
@@ -2370,7 +2538,7 @@
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" ht="57">
@@ -2381,7 +2549,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14">
@@ -2392,25 +2560,30 @@
     </row>
     <row r="15">
       <c r="D15" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" ht="15">
-      <c r="D16" s="22" t="s">
-        <v>175</v>
+      <c r="D16" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" ht="16.5">
       <c r="A17" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2419,7 +2592,12 @@
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2428,7 +2606,12 @@
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2441,82 +2624,82 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>182</v>
+      <c r="A25" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>184</v>
+      <c r="A26" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="27" ht="15">
-      <c r="A27" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B27" s="23"/>
+      <c r="A27" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="19"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>187</v>
+        <v>194</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>189</v>
+        <v>196</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33"/>
     <row r="34"/>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2531,4 +2714,177 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.50390625"/>
+    <col customWidth="1" min="2" max="2" width="29.75390625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="23.89453125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" ht="33.75">
+      <c r="A3" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" ht="45">
+      <c r="A4" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5">
+      <c r="A5" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5">
+      <c r="A6" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5">
+      <c r="A7" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5">
+      <c r="A8" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5">
+      <c r="A9" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A12"/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="0" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/users/Bryan/linux k8s vim cheat sheet.xlsx
+++ b/users/Bryan/linux k8s vim cheat sheet.xlsx
@@ -2402,7 +2402,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="100" workbookViewId="0">
       <selection activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2723,7 +2723,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.50390625"/>
     <col customWidth="1" min="2" max="2" width="29.75390625"/>
